--- a/Simulated/Activation/33MevTa/BeamOnly/SimFoilResults.xlsx
+++ b/Simulated/Activation/33MevTa/BeamOnly/SimFoilResults.xlsx
@@ -186,7 +186,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +196,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,10 +252,40 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +569,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +619,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -589,7 +631,7 @@
       <c r="P1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -619,10 +661,10 @@
         <v>4040000000</v>
       </c>
       <c r="G2" s="7">
-        <v>2.9535400000000001E-7</v>
+        <v>2.9348299999999998E-7</v>
       </c>
       <c r="H2" s="7">
-        <v>5.9999999999999995E-4</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="I2" s="8">
         <v>2.5</v>
@@ -681,10 +723,10 @@
         <v>4040000000</v>
       </c>
       <c r="G3" s="7">
-        <v>2.8205299999999999E-7</v>
+        <v>2.8016199999999999E-7</v>
       </c>
       <c r="H3" s="7">
-        <v>5.0000000000000001E-4</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="I3" s="8">
         <v>2.5</v>
@@ -743,10 +785,10 @@
         <v>4040000000</v>
       </c>
       <c r="G4" s="11">
-        <v>5.8887299999999998E-7</v>
+        <v>5.9270799999999996E-7</v>
       </c>
       <c r="H4" s="7">
-        <v>3.7000000000000002E-3</v>
+        <v>2.53E-2</v>
       </c>
       <c r="I4" s="8">
         <f>5.015/2</f>
@@ -787,64 +829,64 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="20">
         <v>1293.56</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="20">
         <v>84.8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="21">
         <v>4040000000</v>
       </c>
-      <c r="G5" s="11">
-        <v>4.0123899999999997E-8</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="G5" s="22">
+        <v>3.5699799999999998E-8</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.1353</v>
+      </c>
+      <c r="I5" s="20">
         <f>5.015/2</f>
         <v>2.5074999999999998</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="20">
         <v>0.1021</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="20">
         <v>14.326000000000001</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="20">
         <v>7.1</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="20">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="20">
         <v>114.818</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="23">
         <v>0.95709999999999995</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="19">
         <f>3.141592654*I5^2*J5</f>
         <v>2.016775227767063</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="19">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="24">
         <f>54.12*60</f>
         <v>3247.2</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="21">
         <f>0.6931471806/R5</f>
         <v>2.134599595343681E-4</v>
       </c>
@@ -869,10 +911,10 @@
         <v>4040000000</v>
       </c>
       <c r="G6" s="11">
-        <v>3.9675599999999997E-6</v>
+        <v>3.9437099999999999E-6</v>
       </c>
       <c r="H6" s="11">
-        <v>5.0000000000000001E-4</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I6" s="8">
         <f>4.935/2</f>
@@ -913,253 +955,253 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="20">
         <v>411.8</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="20">
         <v>95.62</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="21">
         <v>4040000000</v>
       </c>
-      <c r="G7" s="11">
-        <v>4.3410999999999997E-8</v>
-      </c>
-      <c r="H7" s="11">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="G7" s="22">
+        <v>4.21634E-8</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="I7" s="20">
         <f>4.935/2</f>
         <v>2.4674999999999998</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="20">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="20">
         <v>3.298</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="20">
         <v>18.34</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="20">
         <v>0.59</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="20">
         <v>196.9666</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="23">
         <v>1</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="19">
         <f>3.141592654*I7^2*J7</f>
         <v>0.17980097773157841</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="19">
         <v>5.7499999999999999E-3</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="24">
         <f>2.695*24*3600</f>
         <v>232847.99999999997</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="21">
         <f t="shared" si="0"/>
         <v>2.9768225649350652E-6</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="20">
         <v>1377.63</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="20">
         <v>81.7</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="21">
         <v>4040000000</v>
       </c>
-      <c r="G8" s="7">
-        <v>6.6441700000000004E-8</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="G8" s="22">
+        <v>6.6242000000000005E-8</v>
+      </c>
+      <c r="H8" s="22">
+        <v>3.3E-3</v>
+      </c>
+      <c r="I8" s="20">
         <f>4.95/2</f>
         <v>2.4750000000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="20">
         <v>0.1</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="20">
         <v>16.934000000000001</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="20">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="20">
         <v>58.693399999999997</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="23">
         <v>0.68076899999999996</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="19">
         <f>3.141592654*I8^2*J8</f>
         <v>1.9244218501158752</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="19">
         <v>6.96E-3</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="24">
         <f>35.6*3600</f>
         <v>128160</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>5.4084517837078655E-6</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="25">
         <v>810.76</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="25">
         <v>99.45</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="15">
         <v>4040000000</v>
       </c>
-      <c r="G9" s="7">
-        <v>2.2013699999999998E-6</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="G9" s="26">
+        <v>2.1998000000000001E-6</v>
+      </c>
+      <c r="H9" s="26">
+        <v>8.6E-3</v>
+      </c>
+      <c r="I9" s="14">
         <f>4.95/2</f>
         <v>2.4750000000000001</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="14">
         <v>0.1</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="14">
         <v>16.934000000000001</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="13">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="13">
         <v>58.693399999999997</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="27">
         <v>0.68076899999999996</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="13">
         <f>3.141592654*I9^2*J9</f>
         <v>1.9244218501158752</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="13">
         <v>6.96E-3</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="18">
         <f>70.86*24*3600</f>
         <v>6122304</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="15">
         <f t="shared" si="0"/>
         <v>1.1321672046994073E-7</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="14">
         <v>909.15</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="14">
         <v>99.04</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="15">
         <v>4040000000</v>
       </c>
-      <c r="G10" s="11">
-        <v>4.1480599999999999E-7</v>
-      </c>
-      <c r="H10" s="11">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="G10" s="16">
+        <v>4.1254699999999999E-7</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I10" s="14">
         <f>4.99/2</f>
         <v>2.4950000000000001</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="14">
         <v>0.1036</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="14">
         <v>13.189</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="14">
         <v>6.51</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="14">
         <v>1.4E-2</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="14">
         <v>91.224000000000004</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="17">
         <v>0.51449999999999996</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="13">
         <f>3.141592654*I10^2*J10</f>
         <v>2.0260526552161138</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="13">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="18">
         <f>78.41*3600</f>
         <v>282276</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="15">
         <f t="shared" si="0"/>
         <v>2.4555654061981891E-6</v>
       </c>
